--- a/tests/ExcelProvider/Excel.xlsx
+++ b/tests/ExcelProvider/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sources\open-source\maestria\TypeProviders\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sources\open-source\maestria\TypeProviders\tests\ExcelProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375C192-4F80-4237-B771-65F3787B6345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E285C122-4425-4C07-9BF5-3E176404664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>Prop sample</t>
+  </si>
+  <si>
+    <t>Prop  \  sample  /  a   b</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Prop-sample 2</t>
+  </si>
+  <si>
+    <t>Prop_sample 3</t>
+  </si>
+  <si>
+    <t>Prop\sample 4</t>
+  </si>
+  <si>
+    <t>Prop/sample 5</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,9 +469,14 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +495,26 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -487,8 +531,26 @@
         <f>E2+10</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -508,8 +570,26 @@
         <f t="shared" ref="F3:F7" si="0">E3+10</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -529,8 +609,26 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -550,8 +648,26 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -568,8 +684,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -588,6 +722,24 @@
       <c r="F7">
         <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
